--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.133617315434</v>
+        <v>31.27132566666667</v>
       </c>
       <c r="H2">
-        <v>18.133617315434</v>
+        <v>93.81397700000001</v>
       </c>
       <c r="I2">
-        <v>0.9217219377948954</v>
+        <v>0.9493361071405608</v>
       </c>
       <c r="J2">
-        <v>0.9217219377948954</v>
+        <v>0.9493361071405608</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.66306537734528</v>
+        <v>21.397026</v>
       </c>
       <c r="N2">
-        <v>1.66306537734528</v>
+        <v>64.191078</v>
       </c>
       <c r="O2">
-        <v>0.2146707052207825</v>
+        <v>0.7694665596935515</v>
       </c>
       <c r="P2">
-        <v>0.2146707052207825</v>
+        <v>0.7694665596935515</v>
       </c>
       <c r="Q2">
-        <v>30.15739112332715</v>
+        <v>669.1133683441341</v>
       </c>
       <c r="R2">
-        <v>30.15739112332715</v>
+        <v>6022.020315097207</v>
       </c>
       <c r="S2">
-        <v>0.1978666984038964</v>
+        <v>0.7304823883543161</v>
       </c>
       <c r="T2">
-        <v>0.1978666984038964</v>
+        <v>0.7304823883543161</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.133617315434</v>
+        <v>31.27132566666667</v>
       </c>
       <c r="H3">
-        <v>18.133617315434</v>
+        <v>93.81397700000001</v>
       </c>
       <c r="I3">
-        <v>0.9217219377948954</v>
+        <v>0.9493361071405608</v>
       </c>
       <c r="J3">
-        <v>0.9217219377948954</v>
+        <v>0.9493361071405608</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.49600620734907</v>
+        <v>4.818642333333333</v>
       </c>
       <c r="N3">
-        <v>4.49600620734907</v>
+        <v>14.455927</v>
       </c>
       <c r="O3">
-        <v>0.5803504999600848</v>
+        <v>0.1732850228168956</v>
       </c>
       <c r="P3">
-        <v>0.5803504999600848</v>
+        <v>0.1732850228168955</v>
       </c>
       <c r="Q3">
-        <v>81.52885601188385</v>
+        <v>150.6853336768532</v>
       </c>
       <c r="R3">
-        <v>81.52885601188385</v>
+        <v>1356.168003091679</v>
       </c>
       <c r="S3">
-        <v>0.5349217874234458</v>
+        <v>0.1645057289867549</v>
       </c>
       <c r="T3">
-        <v>0.5349217874234458</v>
+        <v>0.1645057289867549</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.133617315434</v>
+        <v>31.27132566666667</v>
       </c>
       <c r="H4">
-        <v>18.133617315434</v>
+        <v>93.81397700000001</v>
       </c>
       <c r="I4">
-        <v>0.9217219377948954</v>
+        <v>0.9493361071405608</v>
       </c>
       <c r="J4">
-        <v>0.9217219377948954</v>
+        <v>0.9493361071405608</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.58798163169522</v>
+        <v>1.591941666666667</v>
       </c>
       <c r="N4">
-        <v>1.58798163169522</v>
+        <v>4.775825</v>
       </c>
       <c r="O4">
-        <v>0.2049787948191328</v>
+        <v>0.05724841748955292</v>
       </c>
       <c r="P4">
-        <v>0.2049787948191328</v>
+        <v>0.05724841748955292</v>
       </c>
       <c r="Q4">
-        <v>28.79585121309958</v>
+        <v>49.78212630066945</v>
       </c>
       <c r="R4">
-        <v>28.79585121309958</v>
+        <v>448.039136706025</v>
       </c>
       <c r="S4">
-        <v>0.1889334519675533</v>
+        <v>0.05434798979948977</v>
       </c>
       <c r="T4">
-        <v>0.1889334519675533</v>
+        <v>0.05434798979948977</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.915343499036167</v>
+        <v>0.96805</v>
       </c>
       <c r="H5">
-        <v>0.915343499036167</v>
+        <v>2.90415</v>
       </c>
       <c r="I5">
-        <v>0.04652641384250936</v>
+        <v>0.02938809912676722</v>
       </c>
       <c r="J5">
-        <v>0.04652641384250936</v>
+        <v>0.02938809912676721</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.66306537734528</v>
+        <v>21.397026</v>
       </c>
       <c r="N5">
-        <v>1.66306537734528</v>
+        <v>64.191078</v>
       </c>
       <c r="O5">
-        <v>0.2146707052207825</v>
+        <v>0.7694665596935515</v>
       </c>
       <c r="P5">
-        <v>0.2146707052207825</v>
+        <v>0.7694665596935515</v>
       </c>
       <c r="Q5">
-        <v>1.522276081625132</v>
+        <v>20.7133910193</v>
       </c>
       <c r="R5">
-        <v>1.522276081625132</v>
+        <v>186.4205191737</v>
       </c>
       <c r="S5">
-        <v>0.00998785807096546</v>
+        <v>0.02261315953100664</v>
       </c>
       <c r="T5">
-        <v>0.00998785807096546</v>
+        <v>0.02261315953100663</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.915343499036167</v>
+        <v>0.96805</v>
       </c>
       <c r="H6">
-        <v>0.915343499036167</v>
+        <v>2.90415</v>
       </c>
       <c r="I6">
-        <v>0.04652641384250936</v>
+        <v>0.02938809912676722</v>
       </c>
       <c r="J6">
-        <v>0.04652641384250936</v>
+        <v>0.02938809912676721</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.49600620734907</v>
+        <v>4.818642333333333</v>
       </c>
       <c r="N6">
-        <v>4.49600620734907</v>
+        <v>14.455927</v>
       </c>
       <c r="O6">
-        <v>0.5803504999600848</v>
+        <v>0.1732850228168956</v>
       </c>
       <c r="P6">
-        <v>0.5803504999600848</v>
+        <v>0.1732850228168955</v>
       </c>
       <c r="Q6">
-        <v>4.115390053523224</v>
+        <v>4.664686710783333</v>
       </c>
       <c r="R6">
-        <v>4.115390053523224</v>
+        <v>41.98218039704999</v>
       </c>
       <c r="S6">
-        <v>0.02700162753485012</v>
+        <v>0.005092517427727045</v>
       </c>
       <c r="T6">
-        <v>0.02700162753485012</v>
+        <v>0.005092517427727044</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.915343499036167</v>
+        <v>0.96805</v>
       </c>
       <c r="H7">
-        <v>0.915343499036167</v>
+        <v>2.90415</v>
       </c>
       <c r="I7">
-        <v>0.04652641384250936</v>
+        <v>0.02938809912676722</v>
       </c>
       <c r="J7">
-        <v>0.04652641384250936</v>
+        <v>0.02938809912676721</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.58798163169522</v>
+        <v>1.591941666666667</v>
       </c>
       <c r="N7">
-        <v>1.58798163169522</v>
+        <v>4.775825</v>
       </c>
       <c r="O7">
-        <v>0.2049787948191328</v>
+        <v>0.05724841748955292</v>
       </c>
       <c r="P7">
-        <v>0.2049787948191328</v>
+        <v>0.05724841748955292</v>
       </c>
       <c r="Q7">
-        <v>1.453548663161064</v>
+        <v>1.541079130416667</v>
       </c>
       <c r="R7">
-        <v>1.453548663161064</v>
+        <v>13.86971217375</v>
       </c>
       <c r="S7">
-        <v>0.009536928236693783</v>
+        <v>0.001682422168033535</v>
       </c>
       <c r="T7">
-        <v>0.009536928236693783</v>
+        <v>0.001682422168033535</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.624670214445575</v>
+        <v>0.700829</v>
       </c>
       <c r="H8">
-        <v>0.624670214445575</v>
+        <v>2.102487</v>
       </c>
       <c r="I8">
-        <v>0.03175164836259522</v>
+        <v>0.02127579373267201</v>
       </c>
       <c r="J8">
-        <v>0.03175164836259522</v>
+        <v>0.02127579373267201</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.66306537734528</v>
+        <v>21.397026</v>
       </c>
       <c r="N8">
-        <v>1.66306537734528</v>
+        <v>64.191078</v>
       </c>
       <c r="O8">
-        <v>0.2146707052207825</v>
+        <v>0.7694665596935515</v>
       </c>
       <c r="P8">
-        <v>0.2146707052207825</v>
+        <v>0.7694665596935515</v>
       </c>
       <c r="Q8">
-        <v>1.038867405903287</v>
+        <v>14.995656334554</v>
       </c>
       <c r="R8">
-        <v>1.038867405903287</v>
+        <v>134.960907010986</v>
       </c>
       <c r="S8">
-        <v>0.006816148745920618</v>
+        <v>0.01637101180822876</v>
       </c>
       <c r="T8">
-        <v>0.006816148745920618</v>
+        <v>0.01637101180822876</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.624670214445575</v>
+        <v>0.700829</v>
       </c>
       <c r="H9">
-        <v>0.624670214445575</v>
+        <v>2.102487</v>
       </c>
       <c r="I9">
-        <v>0.03175164836259522</v>
+        <v>0.02127579373267201</v>
       </c>
       <c r="J9">
-        <v>0.03175164836259522</v>
+        <v>0.02127579373267201</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.49600620734907</v>
+        <v>4.818642333333333</v>
       </c>
       <c r="N9">
-        <v>4.49600620734907</v>
+        <v>14.455927</v>
       </c>
       <c r="O9">
-        <v>0.5803504999600848</v>
+        <v>0.1732850228168956</v>
       </c>
       <c r="P9">
-        <v>0.5803504999600848</v>
+        <v>0.1732850228168955</v>
       </c>
       <c r="Q9">
-        <v>2.80852116169338</v>
+        <v>3.377044287827667</v>
       </c>
       <c r="R9">
-        <v>2.80852116169338</v>
+        <v>30.393398590449</v>
       </c>
       <c r="S9">
-        <v>0.01842708500178894</v>
+        <v>0.003686776402413633</v>
       </c>
       <c r="T9">
-        <v>0.01842708500178894</v>
+        <v>0.003686776402413632</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.624670214445575</v>
+        <v>0.700829</v>
       </c>
       <c r="H10">
-        <v>0.624670214445575</v>
+        <v>2.102487</v>
       </c>
       <c r="I10">
-        <v>0.03175164836259522</v>
+        <v>0.02127579373267201</v>
       </c>
       <c r="J10">
-        <v>0.03175164836259522</v>
+        <v>0.02127579373267201</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.58798163169522</v>
+        <v>1.591941666666667</v>
       </c>
       <c r="N10">
-        <v>1.58798163169522</v>
+        <v>4.775825</v>
       </c>
       <c r="O10">
-        <v>0.2049787948191328</v>
+        <v>0.05724841748955292</v>
       </c>
       <c r="P10">
-        <v>0.2049787948191328</v>
+        <v>0.05724841748955292</v>
       </c>
       <c r="Q10">
-        <v>0.9919648264066873</v>
+        <v>1.115678886308334</v>
       </c>
       <c r="R10">
-        <v>0.9919648264066873</v>
+        <v>10.041109976775</v>
       </c>
       <c r="S10">
-        <v>0.006508414614885658</v>
+        <v>0.001218005522029621</v>
       </c>
       <c r="T10">
-        <v>0.006508414614885658</v>
+        <v>0.001218005522029621</v>
       </c>
     </row>
   </sheetData>
